--- a/hello.xlsx
+++ b/hello.xlsx
@@ -697,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,7 @@
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="150" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="40" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="150" customHeight="1">
@@ -1211,6 +1212,114 @@
     </row>
     <row r="10" ht="200" customHeight="1">
       <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Simple_Standard  : root계정과 동일한 UID를 갖는 계정이 존재하지 않을 경우 양호
+      : UID가 ‘0’인 계정이 두 개 이상 존재할 경우 취약
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="65" customHeight="1">
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">양호: 원격 접속 시 root 로 바로 접속 가능 하지 않도록 설정되어 있는 경우 양호
+취약: 원격 접속 시 root 로 바로 접속 가능 하도록 설정되어 있을 경우 취약\
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="65" customHeight="1">
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">양호: 패스워드를 영문숫자 혼합을 사용하여 복잡하게 설정되어 있는 경우 양호
+취약: 패스워드를 영문숫자 혼합을 사용하지 않고 간단하게 설정되어 있는 경우 취약
+(예 : etc/pam.d/system-auth를 확인하여 password requisite pam_cracklib.so minlen=8 dcredit=-1 ocredit=-1 ucredit=-1 lcredit =-1 설정 확인)
+      dcredit=최소숫자, ucredit=최소대문자, lcredit=최소소문자, ocredit=특수문자, minlen=패스워드 최소갯수
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="65" customHeight="1">
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">양호: 계정잠금 정책기능이 설정되어 임계값이 5 이하인 경우
+취약: 계정 잠금 임계값 5회로 설정하지 않았을 경우  취약
+         예1 : auth required pam_tally.so deny=4 no_magic_root 
+              account required pam_tally.so no_magic_root reset 
+         예2 : auth required pam_tally2.so onerr=fail deny=4 even_deny_root
+              account required pam_tally2.so even_deny_root reset
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="65" customHeight="1">
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#%PAM-1.0
+# This file is auto-generated.
+# User changes will be destroyed the next time authconfig is run.
+auth        required      pam_env.so
+auth        sufficient    pam_fprintd.so
+auth        sufficient    pam_unix.so nullok try_first_pass
+auth        requisite     pam_succeed_if.so uid &gt;= 500 quiet
+auth        required      pam_deny.so
+account     required      pam_unix.so
+account     sufficient    pam_localuser.so
+account     sufficient    pam_succeed_if.so uid &lt; 500 quiet
+account     required      pam_permit.so
+password    requisite     pam_cracklib.so try_first_pass retry=3 type=
+password    sufficient    pam_unix.so sha512 shadow nullok try_first_pass use_authtok
+password    required      pam_deny.so
+session     optional      pam_keyinit.so revoke
+session     required      pam_limits.so
+session     [success=1 default=ignore] pam_succeed_if.so service in crond quiet use_uid
+session     required      pam_unix.so
+cat: /etc/pam.d/common-password: No such file or directory
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="65" customHeight="1">
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Simple_Standard  : 쉐도우 패스워드를 사용하거나, 패스워드를 암호화하여 저장하는 경우
+      : 패스워드가 /etc/passwd에 저장되어 있을 경우 취약
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="65" customHeight="1">
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">/etc/shadow 파일이 존재합니다.
+----------. 1 root root 1285 Feb 27 15:07 /etc/shadow
+daemon:*:15980:0:99999:7:::
+adm:*:15980:0:99999:7:::
+lp:*:15980:0:99999:7:::
+sync:*:15980:0:99999:7:::
+shutdown:*:15980:0:99999:7:::
+halt:*:15980:0:99999:7:::
+abrt:x:173:173::/etc/abrt:/sbin/nologin
+rpcuser:x:29:29:RPC Service User:/var/lib/nfs:/sbin/nologin
+nfsnobody:x:65534:65534:Anonymous NFS User:/var/lib/nfs:/sbin/nologin
+haldaemon:x:68:68:HAL daemon:/:/sbin/nologin
+gdm:x:42:42::/var/lib/gdm:/sbin/nologin
+ntp:x:38:38::/etc/ntp:/sbin/nologin
+apache:x:48:48:Apache:/var/www:/sbin/nologin
+saslauth:x:498:76:Saslauthd user:/var/empty/saslauth:/sbin/nologin
+postfix:x:89:89::/var/spool/postfix:/sbin/nologin
+pulse:x:497:496:PulseAudio System Daemon:/var/run/pulse:/sbin/nologin
+sshd:x:74:74:Privilege-separated SSH:/var/empty/sshd:/sbin/nologin
+tcpdump:x:72:72::/:/sbin/nologin
+mysql:x:605:600::/home/mysql:/bin/bash
+intposid:x:606:606::/home/intposid:/bin/bash
+upposid:x:607:607::/home/upposid:/bin/bash
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="65" customHeight="1">
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">*Simple_Standard  : root계정과 동일한 UID를 갖는 계정이 존재하지 않을 경우 양호
       : UID가 ‘0’인 계정이 두 개 이상 존재할 경우 취약

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elbrown\PycharmProjects\InfraProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elbrown\Desktop\InfraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF749992-9838-49AD-9CF4-20779B00A781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02B62DF-4905-4CAB-BF7E-3969A9B98E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24030" yWindow="1920" windowWidth="23055" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
